--- a/medicine/Enfance/La_Chenille_qui_fait_des_trous/La_Chenille_qui_fait_des_trous.xlsx
+++ b/medicine/Enfance/La_Chenille_qui_fait_des_trous/La_Chenille_qui_fait_des_trous.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Chenille qui fait des trous (The Very Hungry Caterpillar) est un album illustré d'Eric Carle, pour enfants, paru en 1969 aux États-Unis (aux éditions World Publishing Company) et en édition française en 1972 chez Fernand Nathan sous le titre : La Petite Chenille qui faisait des trous. L'album est réédité par Mijade en 1995, sous le titre : La Chenille qui fait des trous.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une minuscule chenille sort de l'œuf. Affamée, elle mord dans une série de fruits, puis dans toutes sortes d'aliments, son appétit n'ayant cessé de croître. Les pages du livre se percent de trous, tandis que la chenille grossit de jour en jour. Elle se blottit dans un cocon, avant d'atteindre sa maturité dans le corps d’un magnifique papillon.
 </t>
@@ -543,9 +557,11 @@
           <t>Ventes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec 43 millions de ventes connues d'exemplaires depuis sa parution en 1969, La Chenille qui fait des trous était en 2021 le quarante-septième (no 47) livre le plus vendu de l'Histoire, ne le plaçant par exemple que deux places en-dessous de l'Odyssée d'Homère[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec 43 millions de ventes connues d'exemplaires depuis sa parution en 1969, La Chenille qui fait des trous était en 2021 le quarante-septième (no 47) livre le plus vendu de l'Histoire, ne le plaçant par exemple que deux places en-dessous de l'Odyssée d'Homère.
 </t>
         </is>
       </c>
